--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -636,8 +636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -781,7 +781,9 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
@@ -825,8 +827,8 @@
       <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>3</v>
+      <c r="E8" s="8">
+        <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -875,8 +877,8 @@
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>3</v>
+      <c r="E9" s="8">
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -925,8 +927,8 @@
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>3</v>
+      <c r="E10" s="8">
+        <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -975,8 +977,8 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>3</v>
+      <c r="E11" s="8">
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -1025,8 +1027,8 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>3</v>
+      <c r="E12" s="8">
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -1075,8 +1077,8 @@
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>3</v>
+      <c r="E13" s="8">
+        <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -1125,8 +1127,8 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>3</v>
+      <c r="E14" s="8">
+        <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -1175,8 +1177,8 @@
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>3</v>
+      <c r="E15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -1225,8 +1227,8 @@
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
+      <c r="E16" s="8">
+        <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>3</v>
@@ -1275,8 +1277,8 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>3</v>
+      <c r="E17" s="8">
+        <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>3</v>
@@ -1325,8 +1327,8 @@
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
+      <c r="E18" s="8">
+        <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>3</v>
@@ -1375,8 +1377,8 @@
       <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>3</v>
+      <c r="E19" s="8">
+        <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>3</v>
@@ -1425,8 +1427,8 @@
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>3</v>
+      <c r="E20" s="8">
+        <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>3</v>
@@ -1475,8 +1477,8 @@
       <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>3</v>
+      <c r="E21" s="8">
+        <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>3</v>
@@ -1525,8 +1527,8 @@
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>3</v>
+      <c r="E22" s="8">
+        <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>3</v>
@@ -1575,8 +1577,8 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>3</v>
+      <c r="E23" s="8">
+        <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>3</v>
@@ -1625,8 +1627,8 @@
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
+      <c r="E24" s="8">
+        <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>3</v>
@@ -1675,8 +1677,8 @@
       <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>3</v>
+      <c r="E25" s="8">
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>3</v>
@@ -1725,8 +1727,8 @@
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>3</v>
+      <c r="E26" s="8">
+        <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>3</v>
@@ -1775,8 +1777,8 @@
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>3</v>
+      <c r="E27" s="8">
+        <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>3</v>
@@ -1825,8 +1827,8 @@
       <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>3</v>
+      <c r="E28" s="8">
+        <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>3</v>
@@ -1875,8 +1877,8 @@
       <c r="D29" s="8">
         <v>0</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>3</v>
+      <c r="E29" s="8">
+        <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>3</v>
@@ -1925,8 +1927,8 @@
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>3</v>
+      <c r="E30" s="8">
+        <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>3</v>
@@ -1975,8 +1977,8 @@
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>3</v>
+      <c r="E31" s="8">
+        <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>3</v>
@@ -2025,8 +2027,8 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>3</v>
+      <c r="E32" s="8">
+        <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>3</v>
@@ -2075,8 +2077,8 @@
       <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>3</v>
+      <c r="E33" s="8">
+        <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>3</v>
@@ -2125,8 +2127,8 @@
       <c r="D34" s="8">
         <v>1</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>3</v>
+      <c r="E34" s="8">
+        <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>3</v>
@@ -2175,8 +2177,8 @@
       <c r="D35" s="8">
         <v>1</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>3</v>
+      <c r="E35" s="8">
+        <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>3</v>
@@ -2225,8 +2227,8 @@
       <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>3</v>
+      <c r="E36" s="8">
+        <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>3</v>
@@ -2275,8 +2277,8 @@
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>3</v>
+      <c r="E37" s="8">
+        <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>3</v>
@@ -2325,8 +2327,8 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>3</v>
+      <c r="E38" s="8">
+        <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>3</v>
@@ -2375,8 +2377,8 @@
       <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>3</v>
+      <c r="E39" s="8">
+        <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>3</v>
@@ -2425,8 +2427,8 @@
       <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>3</v>
+      <c r="E40" s="8">
+        <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>3</v>
@@ -2475,8 +2477,8 @@
       <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>3</v>
+      <c r="E41" s="8">
+        <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>3</v>
@@ -2525,8 +2527,8 @@
       <c r="D42" s="8">
         <v>0</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>3</v>
+      <c r="E42" s="8">
+        <v>0</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>3</v>
@@ -2575,8 +2577,8 @@
       <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>3</v>
+      <c r="E43" s="8">
+        <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>3</v>
@@ -2625,8 +2627,8 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>3</v>
+      <c r="E44" s="8">
+        <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>3</v>
@@ -2675,8 +2677,8 @@
       <c r="D45" s="8">
         <v>1</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>3</v>
+      <c r="E45" s="8">
+        <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>3</v>
@@ -2725,8 +2727,8 @@
       <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>3</v>
+      <c r="E46" s="8">
+        <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>3</v>
@@ -2775,8 +2777,8 @@
       <c r="D47" s="8">
         <v>1</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>3</v>
+      <c r="E47" s="8">
+        <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>3</v>
@@ -2825,8 +2827,8 @@
       <c r="D48" s="8">
         <v>0</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>3</v>
+      <c r="E48" s="8">
+        <v>0</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>3</v>
@@ -2875,8 +2877,8 @@
       <c r="D49" s="8">
         <v>0</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>3</v>
+      <c r="E49" s="8">
+        <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>3</v>
@@ -2925,8 +2927,8 @@
       <c r="D50" s="8">
         <v>1</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
+      <c r="E50" s="8">
+        <v>0</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>3</v>

--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -636,8 +636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,8 +784,8 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
+      <c r="F7" s="8">
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>3</v>
@@ -830,8 +830,8 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>3</v>
+      <c r="F8" s="8">
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>3</v>
@@ -880,8 +880,8 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
+      <c r="F9" s="8">
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>3</v>
@@ -930,8 +930,8 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>3</v>
+      <c r="F10" s="8">
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>3</v>
@@ -980,8 +980,8 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>3</v>
+      <c r="F11" s="8">
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>3</v>
@@ -1030,8 +1030,8 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
+      <c r="F12" s="8">
+        <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>3</v>
@@ -1080,8 +1080,8 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>3</v>
+      <c r="F13" s="8">
+        <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>3</v>
@@ -1130,8 +1130,8 @@
       <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>3</v>
+      <c r="F14" s="8">
+        <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>3</v>
@@ -1180,8 +1180,8 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>3</v>
+      <c r="F15" s="8">
+        <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>3</v>
@@ -1230,8 +1230,8 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>3</v>
+      <c r="F16" s="8">
+        <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>3</v>
@@ -1280,8 +1280,8 @@
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>3</v>
+      <c r="F17" s="8">
+        <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>3</v>
@@ -1330,8 +1330,8 @@
       <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
+      <c r="F18" s="8">
+        <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>3</v>
@@ -1380,8 +1380,8 @@
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>3</v>
+      <c r="F19" s="8">
+        <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>3</v>
@@ -1430,8 +1430,8 @@
       <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>3</v>
+      <c r="F20" s="8">
+        <v>1</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>3</v>
@@ -1480,8 +1480,8 @@
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>3</v>
+      <c r="F21" s="8">
+        <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>3</v>
@@ -1530,8 +1530,8 @@
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>3</v>
+      <c r="F22" s="8">
+        <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>3</v>
@@ -1580,8 +1580,8 @@
       <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>3</v>
+      <c r="F23" s="8">
+        <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>3</v>
@@ -1630,8 +1630,8 @@
       <c r="E24" s="8">
         <v>1</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>3</v>
+      <c r="F24" s="8">
+        <v>1</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>3</v>
@@ -1680,8 +1680,8 @@
       <c r="E25" s="8">
         <v>1</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>3</v>
+      <c r="F25" s="8">
+        <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>3</v>
@@ -1730,8 +1730,8 @@
       <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>3</v>
+      <c r="F26" s="8">
+        <v>1</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>3</v>
@@ -1780,8 +1780,8 @@
       <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>3</v>
+      <c r="F27" s="8">
+        <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>3</v>
@@ -1830,8 +1830,8 @@
       <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>3</v>
+      <c r="F28" s="8">
+        <v>1</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>3</v>
@@ -1880,8 +1880,8 @@
       <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>3</v>
+      <c r="F29" s="8">
+        <v>1</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>3</v>
@@ -1930,8 +1930,8 @@
       <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>3</v>
+      <c r="F30" s="8">
+        <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>3</v>
@@ -1980,8 +1980,8 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>3</v>
+      <c r="F31" s="8">
+        <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>3</v>
@@ -2030,8 +2030,8 @@
       <c r="E32" s="8">
         <v>1</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>3</v>
+      <c r="F32" s="8">
+        <v>1</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>3</v>
@@ -2080,8 +2080,8 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>3</v>
+      <c r="F33" s="8">
+        <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>3</v>
@@ -2130,8 +2130,8 @@
       <c r="E34" s="8">
         <v>0</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>3</v>
+      <c r="F34" s="8">
+        <v>1</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>3</v>
@@ -2180,8 +2180,8 @@
       <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>3</v>
+      <c r="F35" s="8">
+        <v>1</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>3</v>
@@ -2230,8 +2230,8 @@
       <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>3</v>
+      <c r="F36" s="8">
+        <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>3</v>
@@ -2280,8 +2280,8 @@
       <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>3</v>
+      <c r="F37" s="8">
+        <v>1</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>3</v>
@@ -2330,8 +2330,8 @@
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>3</v>
+      <c r="F38" s="8">
+        <v>1</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>3</v>
@@ -2380,8 +2380,8 @@
       <c r="E39" s="8">
         <v>1</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>3</v>
+      <c r="F39" s="8">
+        <v>1</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>3</v>
@@ -2430,8 +2430,8 @@
       <c r="E40" s="8">
         <v>0</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>3</v>
+      <c r="F40" s="8">
+        <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>3</v>
@@ -2480,8 +2480,8 @@
       <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>3</v>
+      <c r="F41" s="8">
+        <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>3</v>
@@ -2530,8 +2530,8 @@
       <c r="E42" s="8">
         <v>0</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>3</v>
+      <c r="F42" s="8">
+        <v>1</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
@@ -2580,8 +2580,8 @@
       <c r="E43" s="8">
         <v>1</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>3</v>
+      <c r="F43" s="8">
+        <v>1</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>3</v>
@@ -2630,8 +2630,8 @@
       <c r="E44" s="8">
         <v>1</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>3</v>
+      <c r="F44" s="8">
+        <v>1</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>3</v>
@@ -2680,8 +2680,8 @@
       <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>3</v>
+      <c r="F45" s="8">
+        <v>1</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>3</v>
@@ -2730,8 +2730,8 @@
       <c r="E46" s="8">
         <v>1</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>3</v>
+      <c r="F46" s="8">
+        <v>1</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>3</v>
@@ -2780,8 +2780,8 @@
       <c r="E47" s="8">
         <v>1</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>3</v>
+      <c r="F47" s="8">
+        <v>1</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>3</v>
@@ -2830,8 +2830,8 @@
       <c r="E48" s="8">
         <v>0</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>3</v>
+      <c r="F48" s="8">
+        <v>1</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>3</v>
@@ -2880,8 +2880,8 @@
       <c r="E49" s="8">
         <v>1</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>3</v>
+      <c r="F49" s="8">
+        <v>1</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>3</v>
@@ -2930,8 +2930,8 @@
       <c r="E50" s="8">
         <v>0</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>3</v>
+      <c r="F50" s="8">
+        <v>1</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>3</v>

--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
   </bookViews>
@@ -205,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,26 +631,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -675,7 +671,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
@@ -695,7 +691,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
@@ -715,10 +711,10 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -814,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -864,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -914,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -964,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1014,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1064,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1264,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1314,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1464,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1564,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1614,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1664,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1714,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1764,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1814,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1864,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="29" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -2014,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -2064,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="33" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -2114,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="27.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="27" customHeight="1" thickBot="1">
+    <row r="35" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>29</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>30</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>31</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>32</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="27.75" customHeight="1" thickBot="1">
+    <row r="39" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>33</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>34</v>
       </c>
@@ -2464,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="27" customHeight="1" thickBot="1">
+    <row r="41" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>35</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="28.5" customHeight="1" thickBot="1">
+    <row r="42" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>36</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="43" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>37</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>38</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="45" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>39</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="29.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>40</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>41</v>
       </c>
@@ -2814,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>42</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="24" customHeight="1" thickBot="1">
+    <row r="49" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>43</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>44</v>
       </c>

--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -637,7 +637,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,8 +787,8 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>3</v>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -833,8 +833,8 @@
       <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>3</v>
@@ -883,8 +883,8 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>3</v>
@@ -933,8 +933,8 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>3</v>
+      <c r="G10" s="8">
+        <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>3</v>
@@ -983,8 +983,8 @@
       <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>3</v>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>3</v>
@@ -1033,8 +1033,8 @@
       <c r="F12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
+      <c r="G12" s="8">
+        <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>3</v>
@@ -1083,8 +1083,8 @@
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>3</v>
+      <c r="G13" s="8">
+        <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>3</v>
@@ -1133,8 +1133,8 @@
       <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>3</v>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>3</v>
@@ -1183,8 +1183,8 @@
       <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>3</v>
+      <c r="G15" s="8">
+        <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>3</v>
@@ -1233,8 +1233,8 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>3</v>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>3</v>
@@ -1283,8 +1283,8 @@
       <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>3</v>
+      <c r="G17" s="8">
+        <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>3</v>
@@ -1333,8 +1333,8 @@
       <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>3</v>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>3</v>
@@ -1383,8 +1383,8 @@
       <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>3</v>
+      <c r="G19" s="8">
+        <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>3</v>
@@ -1433,8 +1433,8 @@
       <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>3</v>
+      <c r="G20" s="8">
+        <v>1</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>3</v>
@@ -1483,8 +1483,8 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>3</v>
+      <c r="G21" s="8">
+        <v>1</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>3</v>
@@ -1533,8 +1533,8 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>3</v>
+      <c r="G22" s="8">
+        <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>3</v>
@@ -1583,8 +1583,8 @@
       <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>3</v>
+      <c r="G23" s="8">
+        <v>1</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>3</v>
@@ -1633,8 +1633,8 @@
       <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>3</v>
+      <c r="G24" s="8">
+        <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>3</v>
@@ -1683,8 +1683,8 @@
       <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>3</v>
+      <c r="G25" s="8">
+        <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>3</v>
@@ -1733,8 +1733,8 @@
       <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>3</v>
+      <c r="G26" s="8">
+        <v>1</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>3</v>
@@ -1783,8 +1783,8 @@
       <c r="F27" s="8">
         <v>1</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>3</v>
+      <c r="G27" s="8">
+        <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>3</v>
@@ -1833,8 +1833,8 @@
       <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>3</v>
+      <c r="G28" s="8">
+        <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>3</v>
@@ -1883,8 +1883,8 @@
       <c r="F29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>3</v>
+      <c r="G29" s="8">
+        <v>1</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>3</v>
@@ -1933,8 +1933,8 @@
       <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>3</v>
+      <c r="G30" s="8">
+        <v>1</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>3</v>
@@ -1983,8 +1983,8 @@
       <c r="F31" s="8">
         <v>1</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>3</v>
+      <c r="G31" s="8">
+        <v>1</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>3</v>
@@ -2033,8 +2033,8 @@
       <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>3</v>
+      <c r="G32" s="8">
+        <v>1</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>3</v>
@@ -2083,8 +2083,8 @@
       <c r="F33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>3</v>
+      <c r="G33" s="8">
+        <v>0</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>3</v>
@@ -2133,8 +2133,8 @@
       <c r="F34" s="8">
         <v>1</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>3</v>
+      <c r="G34" s="8">
+        <v>1</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>3</v>
@@ -2183,8 +2183,8 @@
       <c r="F35" s="8">
         <v>1</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>3</v>
+      <c r="G35" s="8">
+        <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>3</v>
@@ -2233,8 +2233,8 @@
       <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>3</v>
+      <c r="G36" s="8">
+        <v>1</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>3</v>
@@ -2283,8 +2283,8 @@
       <c r="F37" s="8">
         <v>1</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>3</v>
+      <c r="G37" s="8">
+        <v>1</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>3</v>
@@ -2333,8 +2333,8 @@
       <c r="F38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>3</v>
+      <c r="G38" s="8">
+        <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>3</v>
@@ -2383,8 +2383,8 @@
       <c r="F39" s="8">
         <v>1</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>3</v>
+      <c r="G39" s="8">
+        <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>3</v>
@@ -2433,8 +2433,8 @@
       <c r="F40" s="8">
         <v>1</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>3</v>
+      <c r="G40" s="8">
+        <v>1</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>3</v>
@@ -2483,8 +2483,8 @@
       <c r="F41" s="8">
         <v>1</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>3</v>
+      <c r="G41" s="8">
+        <v>1</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>3</v>
@@ -2533,8 +2533,8 @@
       <c r="F42" s="8">
         <v>1</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>3</v>
+      <c r="G42" s="8">
+        <v>1</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>3</v>
@@ -2583,8 +2583,8 @@
       <c r="F43" s="8">
         <v>1</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>3</v>
+      <c r="G43" s="8">
+        <v>1</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>3</v>
@@ -2633,8 +2633,8 @@
       <c r="F44" s="8">
         <v>1</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>3</v>
+      <c r="G44" s="8">
+        <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>3</v>
@@ -2683,8 +2683,8 @@
       <c r="F45" s="8">
         <v>1</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>3</v>
+      <c r="G45" s="8">
+        <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>3</v>
@@ -2733,8 +2733,8 @@
       <c r="F46" s="8">
         <v>1</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>3</v>
+      <c r="G46" s="8">
+        <v>1</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>3</v>
@@ -2783,8 +2783,8 @@
       <c r="F47" s="8">
         <v>1</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>3</v>
+      <c r="G47" s="8">
+        <v>1</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>3</v>
@@ -2833,8 +2833,8 @@
       <c r="F48" s="8">
         <v>1</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>3</v>
+      <c r="G48" s="8">
+        <v>1</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>3</v>
@@ -2883,8 +2883,8 @@
       <c r="F49" s="8">
         <v>1</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>3</v>
+      <c r="G49" s="8">
+        <v>1</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>3</v>
@@ -2933,8 +2933,8 @@
       <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>3</v>
+      <c r="G50" s="8">
+        <v>0</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>3</v>

--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\MONITORING-EE4-19-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\sols folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -636,8 +636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,7 +790,9 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
         <v>3</v>
@@ -836,8 +838,8 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>3</v>
+      <c r="H8" s="8">
+        <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>3</v>
@@ -886,8 +888,8 @@
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>3</v>
+      <c r="H9" s="8">
+        <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>3</v>
@@ -936,8 +938,8 @@
       <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>3</v>
+      <c r="H10" s="8">
+        <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>3</v>
@@ -986,8 +988,8 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>3</v>
+      <c r="H11" s="8">
+        <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>3</v>
@@ -1036,8 +1038,8 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>3</v>
+      <c r="H12" s="8">
+        <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>3</v>
@@ -1086,8 +1088,8 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>3</v>
+      <c r="H13" s="8">
+        <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>3</v>
@@ -1136,8 +1138,8 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>3</v>
+      <c r="H14" s="8">
+        <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>3</v>
@@ -1186,8 +1188,8 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>3</v>
+      <c r="H15" s="8">
+        <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>3</v>
@@ -1236,8 +1238,8 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>3</v>
+      <c r="H16" s="8">
+        <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>3</v>
@@ -1286,8 +1288,8 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>3</v>
+      <c r="H17" s="8">
+        <v>1</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>3</v>
@@ -1336,8 +1338,8 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>3</v>
+      <c r="H18" s="8">
+        <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>3</v>
@@ -1386,8 +1388,8 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>3</v>
+      <c r="H19" s="8">
+        <v>1</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>3</v>
@@ -1436,8 +1438,8 @@
       <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>3</v>
+      <c r="H20" s="8">
+        <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>3</v>
@@ -1486,8 +1488,8 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>3</v>
+      <c r="H21" s="8">
+        <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>3</v>
@@ -1536,8 +1538,8 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>3</v>
+      <c r="H22" s="8">
+        <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>3</v>
@@ -1586,8 +1588,8 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>3</v>
+      <c r="H23" s="8">
+        <v>1</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>3</v>
@@ -1636,8 +1638,8 @@
       <c r="G24" s="8">
         <v>1</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>3</v>
+      <c r="H24" s="8">
+        <v>1</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>3</v>
@@ -1686,8 +1688,8 @@
       <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>3</v>
+      <c r="H25" s="8">
+        <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>3</v>
@@ -1736,8 +1738,8 @@
       <c r="G26" s="8">
         <v>1</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>3</v>
+      <c r="H26" s="8">
+        <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>3</v>
@@ -1786,8 +1788,8 @@
       <c r="G27" s="8">
         <v>1</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>3</v>
+      <c r="H27" s="8">
+        <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>3</v>
@@ -1836,8 +1838,8 @@
       <c r="G28" s="8">
         <v>1</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>3</v>
+      <c r="H28" s="8">
+        <v>1</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>3</v>
@@ -1886,8 +1888,8 @@
       <c r="G29" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>3</v>
+      <c r="H29" s="8">
+        <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>3</v>
@@ -1936,8 +1938,8 @@
       <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>3</v>
+      <c r="H30" s="8">
+        <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>3</v>
@@ -1986,8 +1988,8 @@
       <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>3</v>
+      <c r="H31" s="8">
+        <v>1</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>3</v>
@@ -2036,8 +2038,8 @@
       <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>3</v>
+      <c r="H32" s="8">
+        <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>3</v>
@@ -2086,8 +2088,8 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>3</v>
+      <c r="H33" s="8">
+        <v>1</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>3</v>
@@ -2136,8 +2138,8 @@
       <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>3</v>
+      <c r="H34" s="8">
+        <v>1</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>3</v>
@@ -2186,8 +2188,8 @@
       <c r="G35" s="8">
         <v>1</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>3</v>
+      <c r="H35" s="8">
+        <v>1</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>3</v>
@@ -2236,8 +2238,8 @@
       <c r="G36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>3</v>
+      <c r="H36" s="8">
+        <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>3</v>
@@ -2286,8 +2288,8 @@
       <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>3</v>
+      <c r="H37" s="8">
+        <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>3</v>
@@ -2336,8 +2338,8 @@
       <c r="G38" s="8">
         <v>1</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>3</v>
+      <c r="H38" s="8">
+        <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>3</v>
@@ -2386,8 +2388,8 @@
       <c r="G39" s="8">
         <v>1</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>3</v>
+      <c r="H39" s="8">
+        <v>1</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>3</v>
@@ -2436,8 +2438,8 @@
       <c r="G40" s="8">
         <v>1</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>3</v>
+      <c r="H40" s="8">
+        <v>1</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>3</v>
@@ -2486,8 +2488,8 @@
       <c r="G41" s="8">
         <v>1</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>3</v>
+      <c r="H41" s="8">
+        <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>3</v>
@@ -2536,8 +2538,8 @@
       <c r="G42" s="8">
         <v>1</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>3</v>
+      <c r="H42" s="8">
+        <v>1</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>3</v>
@@ -2586,8 +2588,8 @@
       <c r="G43" s="8">
         <v>1</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>3</v>
+      <c r="H43" s="8">
+        <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>3</v>
@@ -2636,8 +2638,8 @@
       <c r="G44" s="8">
         <v>1</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>3</v>
+      <c r="H44" s="8">
+        <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>3</v>
@@ -2686,8 +2688,8 @@
       <c r="G45" s="8">
         <v>1</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>3</v>
+      <c r="H45" s="8">
+        <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>3</v>
@@ -2736,8 +2738,8 @@
       <c r="G46" s="8">
         <v>1</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>3</v>
+      <c r="H46" s="8">
+        <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>3</v>
@@ -2786,8 +2788,8 @@
       <c r="G47" s="8">
         <v>1</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>3</v>
+      <c r="H47" s="8">
+        <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>3</v>
@@ -2836,8 +2838,8 @@
       <c r="G48" s="8">
         <v>1</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>3</v>
+      <c r="H48" s="8">
+        <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>3</v>
@@ -2886,8 +2888,8 @@
       <c r="G49" s="8">
         <v>1</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>3</v>
+      <c r="H49" s="8">
+        <v>0</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>3</v>
@@ -2936,8 +2938,8 @@
       <c r="G50" s="8">
         <v>0</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>3</v>
+      <c r="H50" s="8">
+        <v>1</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>3</v>

--- a/MS-EE4-19-20-ATTENDANCE.xlsx
+++ b/MS-EE4-19-20-ATTENDANCE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -187,16 +187,7 @@
     <t>ATTENDANCE, BSCpE 4, S.Y. 2019-2020</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/03/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 20/02/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12/03/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19/03/2020</t>
   </si>
   <si>
     <t xml:space="preserve"> 26/03/2020</t>
@@ -636,8 +627,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,7 +640,8 @@
     <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -738,22 +730,22 @@
         <v>43874</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4">
         <v>43888</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>54</v>
+      <c r="I6" s="4">
+        <v>43902</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43909</v>
+      </c>
+      <c r="K6" s="4">
+        <v>43916</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>3</v>
@@ -793,7 +785,9 @@
       <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>3</v>
       </c>
@@ -841,8 +835,8 @@
       <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>3</v>
+      <c r="I8" s="8">
+        <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>3</v>
@@ -891,8 +885,8 @@
       <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>3</v>
+      <c r="I9" s="8">
+        <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>3</v>
@@ -941,8 +935,8 @@
       <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>3</v>
+      <c r="I10" s="8">
+        <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>3</v>
@@ -991,8 +985,8 @@
       <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>3</v>
+      <c r="I11" s="8">
+        <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>3</v>
@@ -1041,8 +1035,8 @@
       <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>3</v>
+      <c r="I12" s="8">
+        <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>3</v>
@@ -1091,8 +1085,8 @@
       <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>3</v>
+      <c r="I13" s="8">
+        <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>3</v>
@@ -1141,8 +1135,8 @@
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>3</v>
+      <c r="I14" s="8">
+        <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>3</v>
@@ -1191,8 +1185,8 @@
       <c r="H15" s="8">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>3</v>
+      <c r="I15" s="8">
+        <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>3</v>
@@ -1241,8 +1235,8 @@
       <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>3</v>
+      <c r="I16" s="8">
+        <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>3</v>
@@ -1291,8 +1285,8 @@
       <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>3</v>
+      <c r="I17" s="8">
+        <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>3</v>
@@ -1341,8 +1335,8 @@
       <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>3</v>
+      <c r="I18" s="8">
+        <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>3</v>
@@ -1391,8 +1385,8 @@
       <c r="H19" s="8">
         <v>1</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>3</v>
+      <c r="I19" s="8">
+        <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>3</v>
@@ -1441,8 +1435,8 @@
       <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>3</v>
+      <c r="I20" s="8">
+        <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>3</v>
@@ -1491,8 +1485,8 @@
       <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>3</v>
+      <c r="I21" s="8">
+        <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>3</v>
@@ -1541,8 +1535,8 @@
       <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>3</v>
+      <c r="I22" s="8">
+        <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>3</v>
@@ -1591,8 +1585,8 @@
       <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>3</v>
+      <c r="I23" s="8">
+        <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>3</v>
@@ -1641,8 +1635,8 @@
       <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>3</v>
+      <c r="I24" s="8">
+        <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>3</v>
@@ -1691,8 +1685,8 @@
       <c r="H25" s="8">
         <v>0</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>3</v>
+      <c r="I25" s="8">
+        <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>3</v>
@@ -1741,8 +1735,8 @@
       <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>3</v>
+      <c r="I26" s="8">
+        <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>3</v>
@@ -1791,8 +1785,8 @@
       <c r="H27" s="8">
         <v>0</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>3</v>
+      <c r="I27" s="8">
+        <v>0</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>3</v>
@@ -1841,8 +1835,8 @@
       <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>3</v>
+      <c r="I28" s="8">
+        <v>0</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>3</v>
@@ -1891,8 +1885,8 @@
       <c r="H29" s="8">
         <v>1</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>3</v>
+      <c r="I29" s="8">
+        <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>3</v>
@@ -1941,8 +1935,8 @@
       <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>3</v>
+      <c r="I30" s="8">
+        <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>3</v>
@@ -1991,8 +1985,8 @@
       <c r="H31" s="8">
         <v>1</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>3</v>
+      <c r="I31" s="8">
+        <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>3</v>
@@ -2041,8 +2035,8 @@
       <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>3</v>
+      <c r="I32" s="8">
+        <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>3</v>
@@ -2091,8 +2085,8 @@
       <c r="H33" s="8">
         <v>1</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>3</v>
+      <c r="I33" s="8">
+        <v>1</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>3</v>
@@ -2141,8 +2135,8 @@
       <c r="H34" s="8">
         <v>1</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>3</v>
+      <c r="I34" s="8">
+        <v>1</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>3</v>
@@ -2191,8 +2185,8 @@
       <c r="H35" s="8">
         <v>1</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>3</v>
+      <c r="I35" s="8">
+        <v>1</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>3</v>
@@ -2241,8 +2235,8 @@
       <c r="H36" s="8">
         <v>0</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>3</v>
+      <c r="I36" s="8">
+        <v>1</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>3</v>
@@ -2291,8 +2285,8 @@
       <c r="H37" s="8">
         <v>1</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>3</v>
+      <c r="I37" s="8">
+        <v>1</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>3</v>
@@ -2341,8 +2335,8 @@
       <c r="H38" s="8">
         <v>1</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>3</v>
+      <c r="I38" s="8">
+        <v>1</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>3</v>
@@ -2391,8 +2385,8 @@
       <c r="H39" s="8">
         <v>1</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>3</v>
+      <c r="I39" s="8">
+        <v>1</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>3</v>
@@ -2441,8 +2435,8 @@
       <c r="H40" s="8">
         <v>1</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>3</v>
+      <c r="I40" s="8">
+        <v>1</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>3</v>
@@ -2491,8 +2485,8 @@
       <c r="H41" s="8">
         <v>1</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>3</v>
+      <c r="I41" s="8">
+        <v>1</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>3</v>
@@ -2541,8 +2535,8 @@
       <c r="H42" s="8">
         <v>1</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>3</v>
+      <c r="I42" s="8">
+        <v>1</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>3</v>
@@ -2591,8 +2585,8 @@
       <c r="H43" s="8">
         <v>1</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>3</v>
+      <c r="I43" s="8">
+        <v>1</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>3</v>
@@ -2641,8 +2635,8 @@
       <c r="H44" s="8">
         <v>0</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>3</v>
+      <c r="I44" s="8">
+        <v>1</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>3</v>
@@ -2691,8 +2685,8 @@
       <c r="H45" s="8">
         <v>1</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>3</v>
+      <c r="I45" s="8">
+        <v>1</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>3</v>
@@ -2741,8 +2735,8 @@
       <c r="H46" s="8">
         <v>0</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>3</v>
+      <c r="I46" s="8">
+        <v>1</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>3</v>
@@ -2791,8 +2785,8 @@
       <c r="H47" s="8">
         <v>1</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>3</v>
+      <c r="I47" s="8">
+        <v>1</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>3</v>
@@ -2841,8 +2835,8 @@
       <c r="H48" s="8">
         <v>1</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>3</v>
+      <c r="I48" s="8">
+        <v>1</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>3</v>
@@ -2891,8 +2885,8 @@
       <c r="H49" s="8">
         <v>0</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>3</v>
+      <c r="I49" s="8">
+        <v>1</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>3</v>
@@ -2941,8 +2935,8 @@
       <c r="H50" s="8">
         <v>1</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>3</v>
+      <c r="I50" s="8">
+        <v>1</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>3</v>
